--- a/data/trans_dic/P9_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P9_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee teléfono móvil en su vivienda actual</t>
+          <t>Población que posee teléfono móvil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,66%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,73; 99,52</t>
+          <t>97,56; 99,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>98,07; 99,71</t>
+          <t>98,09; 99,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97,51; 99,3</t>
+          <t>97,54; 99,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,96; 99,09</t>
+          <t>96,75; 99,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,94; 99,23</t>
+          <t>98,0; 99,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,97; 99,24</t>
+          <t>97,88; 99,24</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>99,68%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,87; 100,0</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>99,58; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,88; 99,77</t>
+          <t>98,13; 99,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>97,98; 100,0</t>
+          <t>97,74; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>98,76; 99,81</t>
+          <t>98,74; 99,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,98; 100,0</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>97,05%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,36; 100,0</t>
+          <t>95,35; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,88; 100,0</t>
+          <t>93,24; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,26; 98,43</t>
+          <t>90,75; 98,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,12; 98,96</t>
+          <t>90,5; 98,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,74; 98,91</t>
+          <t>94,91; 98,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>89,19; 98,29</t>
+          <t>93,95; 98,98</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>98,87%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,58; 99,65</t>
+          <t>98,61; 99,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,05; 99,59</t>
+          <t>98,67; 99,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,69; 99,05</t>
+          <t>97,77; 99,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,1</t>
+          <t>97,46; 99,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,43; 99,22</t>
+          <t>98,36; 99,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,95; 99,22</t>
+          <t>98,32; 99,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee teléfono móvil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>663.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>572.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>787.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1450.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1255.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1621736</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1638904</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1766349</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1776705</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3388085</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3415609</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1600084; 1632325</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1621099; 1647965</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1747000; 1778002</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1750532; 1792611</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3362530; 3405375</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3388414; 3435562</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>459.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>624.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>513.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1171.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>972.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1381949</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1374080</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1398187</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1382561</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2780136</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2756641</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1372161; 1386649</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1383451; 1406831</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1360037; 1391465</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2761331; 2789259</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2733272; 2765545</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>418896</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>414147</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>393912</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>395935</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>812808</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>810082</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>403167; 422814</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>394213; 422814</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>373805; 403901</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>372783; 407210</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>792247; 825343</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>784206; 826174</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1339.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1145.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1581.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1333.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2920.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2478.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3422581</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3427131</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3558448</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3555201</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6981029</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6982332</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3401584; 3435283</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3403486; 3439825</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3532297; 3580692</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3521067; 3577323</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6946706; 7005735</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6943723; 7011923</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>